--- a/google_maps_data.xlsx
+++ b/google_maps_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,230 +468,246 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hollanda</t>
+          <t>Boss playstation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Al Khomarawayaa, El Sahel, Shobra, Cairo Governorate 11648</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>اكاديميه السادات, شارع, Maadi, Cairo Governorate 11431</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>chat.whatsapp.com</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>010 21522464</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>012 84955535</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>موبايل شوب</t>
+          <t>M3 Playstation Cafe</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>26 ش Shobra, منية السيرج، Shubra, Cairo Governorate 4341253</t>
+          <t>١٠ الوكيل، حدائق, Helwan, Cairo Governorate 4042812</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>011 17415561</t>
+        </is>
+      </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>راية</t>
+          <t>Nino Ps Store</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>٥٩, Shobra, Cairo Governorate</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>rayashop.com</t>
-        </is>
-      </c>
+          <t>V7HR+J5G, النصر، منشأة ناصر، قسم حلوان، محافظة القاهرة‬،،, Monshaat Nasir, Helwan, Cairo Governorate</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>02 24305434</t>
+          <t>011 14671699</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>258</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>aaa4mob.com - فور موب‎</t>
+          <t>Playstation offside</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24 Shubra, Street, Cairo Governorate</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>عبد الرحمن، حلوان الشرقية، قسم حلوان،</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>010 91941440</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+          <t>011 00420830</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2B Egypt - Shoubra</t>
+          <t>XO Playstation Lounge</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>٥٥ شارع شبرا امام مكتبه المحبه بجوار بنك مصر, Shubra, Giza Governorate</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2b.com.eg</t>
-        </is>
-      </c>
+          <t>68 اطلس، حلوان القبلية، قسم حلوان، محافظة القاهرة‬،،, Helwan El Qebleya, Helwan, Cairo Governorate</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>010 93030058</t>
+          <t>011 19499976</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Plus Mobile Store</t>
+          <t>Playstation LevelUp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>284 Shobra, Asad, El Sahel, Cairo Governorate 4350228</t>
+          <t>زهراء المعادي, Cairo - Sweis Rd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>facebook.com</t>
+          <t>m.facebook.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>012 70609133</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+          <t>010 00591596</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>72</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tito Mobile Services</t>
+          <t>Ps-egystor</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>36MQ+P7J، شارع جسر البحر شبرا مصر قسم, El Sahel, Cairo Governorate</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>012 00098994</t>
-        </is>
-      </c>
+          <t>23 شارع 7 بجوار محطه مترو المعادي بجوار مطعم مهرجاء المعادى القاهرة, Cairo Governorate</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>K mobile Shoubra</t>
+          <t>CR7 PlayStation PS4 &amp; PS5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>92 شارع شبرا، دوران, Shubra</t>
+          <t>R8VQ+9RQ، برهان، حلوان الشرقية، قسم حلوان، محافظة القاهرة‬ 4036414،</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Xiaomi Mi Home Shobra - شاومي فرع شارع شبرا</t>
+          <t>Cupa playstation</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>49 Shobra, Ash Shamashargi, Shubra, Cairo Governorate 4342010</t>
+          <t>١٢ ب شارع عبد الرحمن تقاطع شارع يوسف امام رئاسه الحي, Helwan, Cairo Governorate 11722</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>mi.com</t>
+          <t>m.facebook.com</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>012 81928130</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>25</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.4</v>
-      </c>
+          <t>010 03566403</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Awei Wesa 2000</t>
+          <t>Location PS and restaurant</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>86 road elfarg, Shobra, Cairo Governorate</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>53 Hassanen desoky st, Ezbet Nafie, Maadi, Cairo Governorate 11728</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>locationps.com</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>012 22500045</t>
+          <t>010 06667965</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -699,242 +715,6 @@
       </c>
       <c r="F11" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t># ONE Mobile Accessories اكسسورات المحمول</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>او اول دخله شمال من،, اخر شارع ممتاز, Abd El-Aziz, Ghayt Al Adah, El Mosky, Cairo Governorate 4283110</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>يونيون ستورز</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>73 ش Shobra, Menyat as Serg, El Sahel, Cairo Governorate 4342130</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>015 55835585</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Al Sabbaغ Mobile accessories</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2 Mohammed Faheem, Al Hadiqah Ad Dawleyah, Nasr City, Cairo Governorate 4441231</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>011 40533303</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Mobile Show</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>368R+H6M, Gazirat Badran, Rod El Farag, Cairo Governorate 4341115</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>010 64484848</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>PRIME MOBILE</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>72 Masr - Helwan Agriculture Rd, Dar El-Salam, Maadi, Cairo Governorate 11311</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>instagram.com</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>010 12539394</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>12</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>موبى جو</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Borham, القاهره، Cairo Governorate 4352101</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>02 22055560</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Fealme Plus+</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>36JW+87X, El Barad, El Sahel, Cairo Governorate 4352003</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>012 27684033</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Orange Shoubra Franchise</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Ash Shamashargi, Shubra, Cairo Governorate 4342101</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>store.orange.eg</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>012 23202020</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>111</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>الوهات</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>78 Shobra, Asad, El Sahel, Cairo Governorate 4341565</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Orange</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>قسم الساحل, 66 Shobra, Asad, El Sahel, Cairo Governorate 4351113</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>store.orange.eg</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>012 23202020</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>497</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/google_maps_data.xlsx
+++ b/google_maps_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,11 +456,6 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>reviews_average</t>
         </is>
       </c>
@@ -468,253 +463,203 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Boss playstation</t>
+          <t>Mobile Zone</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>اكاديميه السادات, شارع, Maadi, Cairo Governorate 11431</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>chat.whatsapp.com</t>
-        </is>
-      </c>
+          <t>C38M+X34, King Fahd Road, Al Itisalat, Dammam 32257, Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>012 84955535</t>
+          <t>+966 9200 29663</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>M3 Playstation Cafe</t>
+          <t>Lulu mobile and electronics</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>١٠ الوكيل، حدائق, Helwan, Cairo Governorate 4042812</t>
+          <t>617, Al Dawasir, Dammam 32416, Saudi Arabia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>011 17415561</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Nino Ps Store</t>
+          <t>Sohag Mobile Gallery</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V7HR+J5G, النصر، منشأة ناصر، قسم حلوان، محافظة القاهرة‬،،, Monshaat Nasir, Helwan, Cairo Governorate</t>
+          <t>SEIKO Building, King Saud St, Al Souq, Dammam 32242, Saudi Arabia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>011 14671699</t>
+          <t>+966 50 427 4123</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
-      </c>
-      <c r="F4" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Playstation offside</t>
+          <t>Dammam</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>عبد الرحمن، حلوان الشرقية، قسم حلوان،</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>business.site</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>011 00420830</t>
-        </is>
-      </c>
+          <t>C48F+34V, Aliskan, Dammam 32236, Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>6</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>XO Playstation Lounge</t>
+          <t>اخر تقنية للاتصالات</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>68 اطلس، حلوان القبلية، قسم حلوان، محافظة القاهرة‬،،, Helwan El Qebleya, Helwan, Cairo Governorate</t>
+          <t>Othman Ibn Affan Street, Ghirnatah, حي, Dammam Saudi Arabia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>011 19499976</t>
+          <t>+966 54 644 0630</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Playstation LevelUp</t>
+          <t>communications Dammam</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>زهراء المعادي, Cairo - Sweis Rd</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>m.facebook.com</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>010 00591596</t>
-        </is>
-      </c>
+          <t>C4R2+5W2, Al Souq, Dammam 32242, Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>72</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ps-egystor</t>
+          <t>Huawei Authorized Experience Store (Dammam, Hayat Plaza)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23 شارع 7 بجوار محطه مترو المعادي بجوار مطعم مهرجاء المعادى القاهرة, Cairo Governorate</t>
+          <t>C3V9+FC2, Abu Hamed Al Ghazaly St, Al Anud, Dammam 32427, Saudi Arabia</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>facebook.com</t>
+          <t>consumer.huawei.com</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>14</v>
-      </c>
-      <c r="F8" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CR7 PlayStation PS4 &amp; PS5</t>
+          <t>Dihan Mobile Centers</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R8VQ+9RQ، برهان، حلوان الشرقية، قسم حلوان، محافظة القاهرة‬ 4036414،</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
+          <t>Dammam Seiko Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>dihanmobilecenter.com</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>+966 50 106 1848</t>
+        </is>
+      </c>
       <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cupa playstation</t>
+          <t>Ma Mobile Center</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>١٢ ب شارع عبد الرحمن تقاطع شارع يوسف امام رئاسه الحي, Helwan, Cairo Governorate 11722</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>m.facebook.com</t>
-        </is>
-      </c>
+          <t>Al Souq, Dammam 32242, Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>010 03566403</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+          <t>+966 53 284 6394</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Location PS and restaurant</t>
+          <t>Plug Store Dammam</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>53 Hassanen desoky st, Ezbet Nafie, Maadi, Cairo Governorate 11728</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>locationps.com</t>
-        </is>
-      </c>
+          <t>Al Manar, Dammam 32274, Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>010 06667965</t>
+          <t>+966 50 890 9280</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
